--- a/Ver2/Notion data/Lũy kế ngày SÓC TRĂNG.xlsx
+++ b/Ver2/Notion data/Lũy kế ngày SÓC TRĂNG.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="AK4" t="n">
-        <v>7710000</v>
+        <v>2710000</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="AK8" t="n">
-        <v>23260000</v>
+        <v>18260000</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>23400000</v>
+        <v>18400000</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="AK9" t="n">
-        <v>3608000</v>
+        <v>2608000</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="AK10" t="n">
-        <v>65433000</v>
+        <v>63433000</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>71995000</v>
+        <v>69995000</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="AK11" t="n">
-        <v>5390000</v>
+        <v>4390000</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>11180000</v>
+        <v>6180000</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>11500000</v>
+        <v>6500000</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="AK18" t="n">
-        <v>1560000</v>
+        <v>560000</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>1700000</v>
+        <v>700000</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="AK31" t="n">
-        <v>23613000</v>
+        <v>13613000</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>29000000</v>
+        <v>19000000</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="AK34" t="n">
-        <v>8090000</v>
+        <v>3090000</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7201,25 +7201,25 @@
         </is>
       </c>
       <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR34" t="n">
         <v>5000000</v>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>vSqJ</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="AK35" t="n">
-        <v>40210000</v>
+        <v>35210000</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>46900000</v>
+        <v>41900000</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="AK36" t="n">
-        <v>11038000</v>
+        <v>9038000</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="AK40" t="n">
-        <v>7082000</v>
+        <v>682000</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>7400000</v>
+        <v>1000000</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="AR40" t="n">
-        <v>-1600000</v>
+        <v>4800000</v>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="AK44" t="n">
-        <v>-7299000</v>
+        <v>-8299000</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -9191,25 +9191,25 @@
         </is>
       </c>
       <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR44" t="n">
         <v>1000000</v>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>vSqJ</t>
-        </is>
-      </c>
-      <c r="AP44" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9974,7 +9974,7 @@
         </is>
       </c>
       <c r="AK48" t="n">
-        <v>59915000</v>
+        <v>29915000</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>155000000</v>
+        <v>125000000</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="AS48" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="AK50" t="n">
-        <v>8645000</v>
+        <v>3645000</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AS50" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="AK55" t="n">
-        <v>20252000</v>
+        <v>12852000</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>22400000</v>
+        <v>15000000</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="AR55" t="n">
-        <v>0</v>
+        <v>7400000</v>
       </c>
       <c r="AS55" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="AK59" t="n">
-        <v>7790000</v>
+        <v>4790000</v>
       </c>
       <c r="AL59" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         </is>
       </c>
       <c r="AN59" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="AR59" t="n">
-        <v>9000000</v>
+        <v>12000000</v>
       </c>
       <c r="AS59" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="AK73" t="n">
-        <v>16385000</v>
+        <v>7385000</v>
       </c>
       <c r="AL73" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="AN73" t="n">
-        <v>24000000</v>
+        <v>15000000</v>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         </is>
       </c>
       <c r="AR73" t="n">
-        <v>11000000</v>
+        <v>20000000</v>
       </c>
       <c r="AS73" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15347,7 +15347,7 @@
         </is>
       </c>
       <c r="AK75" t="n">
-        <v>10060000</v>
+        <v>9660000</v>
       </c>
       <c r="AL75" t="inlineStr">
         <is>
@@ -15360,25 +15360,25 @@
         </is>
       </c>
       <c r="AN75" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR75" t="n">
         <v>7400000</v>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>vSqJ</t>
-        </is>
-      </c>
-      <c r="AP75" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="AQ75" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR75" t="n">
-        <v>7000000</v>
       </c>
       <c r="AS75" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15745,7 +15745,7 @@
         </is>
       </c>
       <c r="AK77" t="n">
-        <v>16517000</v>
+        <v>10131000</v>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         </is>
       </c>
       <c r="AN77" t="n">
-        <v>19386000</v>
+        <v>13000000</v>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="AR77" t="n">
-        <v>2000000</v>
+        <v>8386000</v>
       </c>
       <c r="AS77" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="AK83" t="n">
-        <v>5500000</v>
+        <v>2500000</v>
       </c>
       <c r="AL83" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="AN83" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="AO83" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         </is>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AS83" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="AK95" t="n">
-        <v>64000000</v>
+        <v>39000000</v>
       </c>
       <c r="AL95" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         </is>
       </c>
       <c r="AN95" t="n">
-        <v>64000000</v>
+        <v>39000000</v>
       </c>
       <c r="AO95" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         </is>
       </c>
       <c r="AR95" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AS95" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="AK101" t="n">
-        <v>28790000</v>
+        <v>16790000</v>
       </c>
       <c r="AL101" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         </is>
       </c>
       <c r="AN101" t="n">
-        <v>37000000</v>
+        <v>25000000</v>
       </c>
       <c r="AO101" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="AR101" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="AS101" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23904,7 +23904,7 @@
         </is>
       </c>
       <c r="AK118" t="n">
-        <v>57886000</v>
+        <v>53886000</v>
       </c>
       <c r="AL118" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         </is>
       </c>
       <c r="AN118" t="n">
-        <v>71850000</v>
+        <v>67850000</v>
       </c>
       <c r="AO118" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         </is>
       </c>
       <c r="AR118" t="n">
-        <v>39600000</v>
+        <v>43600000</v>
       </c>
       <c r="AS118" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24899,7 +24899,7 @@
         </is>
       </c>
       <c r="AK123" t="n">
-        <v>10715000</v>
+        <v>7715000</v>
       </c>
       <c r="AL123" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         </is>
       </c>
       <c r="AN123" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="AO123" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         </is>
       </c>
       <c r="AR123" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AS123" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25223,7 +25223,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         </is>
       </c>
       <c r="AK125" t="n">
-        <v>-1300000</v>
+        <v>-300000</v>
       </c>
       <c r="AL125" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         </is>
       </c>
       <c r="AN125" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AO125" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="AK128" t="n">
-        <v>35310000</v>
+        <v>30310000</v>
       </c>
       <c r="AL128" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         </is>
       </c>
       <c r="AN128" t="n">
-        <v>43000000</v>
+        <v>38000000</v>
       </c>
       <c r="AO128" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         </is>
       </c>
       <c r="AR128" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AS128" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -26757,7 +26757,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -26956,7 +26956,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -27040,7 +27040,7 @@
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>1428000</v>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         </is>
       </c>
       <c r="AK134" t="n">
-        <v>13000000</v>
+        <v>11572000</v>
       </c>
       <c r="AL134" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -27239,7 +27239,7 @@
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>7488000</v>
+        <v>6060000</v>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="AK135" t="n">
-        <v>14512000</v>
+        <v>15940000</v>
       </c>
       <c r="AL135" t="inlineStr">
         <is>
